--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t xml:space="preserve">SrNo</t>
   </si>
@@ -61,13 +61,19 @@
     <t xml:space="preserve">orangeHRM.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">DemoAutomation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DemoAutomation.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">DemoAutomation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DemoAutomation.xlsx</t>
+    <t xml:space="preserve">iShine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShine.xlsx</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="18.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,19 +296,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,10 +316,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -216,7 +216,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="18.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/MainController.xlsx
+++ b/MainController.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t xml:space="preserve">SrNo</t>
   </si>
@@ -67,13 +67,25 @@
     <t xml:space="preserve">DemoAutomation.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">iShine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShine.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NovaResume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NovaResume.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">iShine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShine.xlsx</t>
+    <t xml:space="preserve">FlipKart_Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlipKart_Login.xlsx</t>
   </si>
 </sst>
 </file>
@@ -213,10 +225,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="18.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -316,19 +328,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,6 +352,35 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
